--- a/LGC_Motiv_results/nutrition/Tryptophan_scoring.xlsx
+++ b/LGC_Motiv_results/nutrition/Tryptophan_scoring.xlsx
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>605.7791738999999</v>
+        <v>552.7791739</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1361.395225</v>
+        <v>1205.895225</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -646,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>757.1844174999999</v>
+        <v>740.1844175</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1799.5411389</v>
+        <v>1644.0411389</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>328.8396</v>
+        <v>279.3396</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1125.0937223</v>
+        <v>840.5937223000001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1015.5635639</v>
+        <v>860.0635639</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -702,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1527.2159639</v>
+        <v>1417.2159639</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>792.7776989499999</v>
+        <v>640.7776989500001</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -718,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1197.33116445</v>
+        <v>1170.83116445</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -726,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>813.1171167000001</v>
+        <v>786.6171167000001</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>381.07542</v>
+        <v>354.57542</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1079.831375</v>
+        <v>1053.331375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -750,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1299.3342667</v>
+        <v>1249.8342667</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -758,7 +758,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1490.96058195</v>
+        <v>1437.96058195</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -766,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>3846.54832945</v>
+        <v>3793.54832945</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1604.702225</v>
+        <v>1578.202225</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -790,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>836.6034000000001</v>
+        <v>783.6034000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -798,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1086.507325</v>
+        <v>1060.007325</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -806,7 +806,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2770.871816700001</v>
+        <v>2717.871816700001</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -822,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1501.95301395</v>
+        <v>1475.45301395</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>706.5652425000001</v>
+        <v>683.5652425000001</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1688.452825</v>
+        <v>1740.952825</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -854,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1236.1266175</v>
+        <v>965.6266175000001</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -862,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>855.1390939</v>
+        <v>809.1390939</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -870,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>630.8037800000001</v>
+        <v>604.3037800000001</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>462.06315</v>
+        <v>439.06315</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -886,7 +886,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>550.0874500000001</v>
+        <v>527.0874500000001</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -894,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>448.4856</v>
+        <v>395.4856</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -902,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>550.1914694500001</v>
+        <v>500.69146945</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -910,7 +910,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1338.1032175</v>
+        <v>1311.6032175</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>4639.575875</v>
+        <v>3719.075875</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -926,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>798.8395723000001</v>
+        <v>793.3395723000001</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>524.3181</v>
+        <v>545.3181</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -942,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1583.084125</v>
+        <v>1537.084125</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -950,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>787.7265749999999</v>
+        <v>738.2265749999999</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -958,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1343.856075</v>
+        <v>1386.856075</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -966,7 +966,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>283.0599525</v>
+        <v>286.5599525</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -974,7 +974,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>644.6953167</v>
+        <v>595.1953167</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -982,7 +982,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>3064.03871445</v>
+        <v>3037.53871445</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -990,7 +990,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1259.2505</v>
+        <v>1232.7505</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>427.5196473</v>
+        <v>404.5196473</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>921.0181639</v>
+        <v>769.0181639000001</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>492.44825445</v>
+        <v>469.44825445</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>1057.6870723</v>
+        <v>1008.1870723</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>1996.37649945</v>
+        <v>1725.87649945</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>584.0662417</v>
+        <v>557.5662417</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>738.5892175</v>
+        <v>692.5892175</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>3060.61751945</v>
+        <v>3079.61751945</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>892.4082166999998</v>
+        <v>733.4082166999999</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>613.375005</v>
+        <v>461.375005</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>1835.97456945</v>
+        <v>1683.97456945</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>1443.100125</v>
+        <v>1416.600125</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>342.748</v>
+        <v>316.248</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>1022.98823</v>
+        <v>973.48823</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1769.566825</v>
+        <v>1716.566825</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>945.24936395</v>
+        <v>899.24936395</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1324.4969775</v>
+        <v>953.4969775</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>1661.98039445</v>
+        <v>1502.98039445</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>447.42501945</v>
+        <v>420.92501945</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>728.4056550000001</v>
+        <v>569.4056550000001</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>907.4963200000002</v>
+        <v>880.9963200000002</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>1598.1766517</v>
+        <v>1571.6766517</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>1133.30295</v>
+        <v>1113.80295</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>709.2635</v>
+        <v>663.2635</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>1215.71764</v>
+        <v>1162.71764</v>
       </c>
     </row>
   </sheetData>
